--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H2">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N2">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P2">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q2">
-        <v>70.81513284768222</v>
+        <v>11.71411235319889</v>
       </c>
       <c r="R2">
-        <v>637.33619562914</v>
+        <v>105.42701117879</v>
       </c>
       <c r="S2">
-        <v>0.008274962158836868</v>
+        <v>0.001608946940366355</v>
       </c>
       <c r="T2">
-        <v>0.008274962158836866</v>
+        <v>0.001608946940366355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H3">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P3">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q3">
-        <v>127.6619333289572</v>
+        <v>37.42517666234744</v>
       </c>
       <c r="R3">
-        <v>1148.957399960615</v>
+        <v>336.826589961127</v>
       </c>
       <c r="S3">
-        <v>0.01491768249158417</v>
+        <v>0.00514039149258379</v>
       </c>
       <c r="T3">
-        <v>0.01491768249158416</v>
+        <v>0.00514039149258379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H4">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P4">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q4">
-        <v>34.29711645766</v>
+        <v>10.054490081468</v>
       </c>
       <c r="R4">
-        <v>308.67404811894</v>
+        <v>90.49041073321199</v>
       </c>
       <c r="S4">
-        <v>0.004007721646936749</v>
+        <v>0.00138099589330848</v>
       </c>
       <c r="T4">
-        <v>0.004007721646936748</v>
+        <v>0.00138099589330848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J5">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N5">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P5">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q5">
-        <v>2046.049371695017</v>
+        <v>1154.508083769297</v>
       </c>
       <c r="R5">
-        <v>18414.44434525516</v>
+        <v>10390.57275392367</v>
       </c>
       <c r="S5">
-        <v>0.2390870488417416</v>
+        <v>0.1585730265342364</v>
       </c>
       <c r="T5">
-        <v>0.2390870488417416</v>
+        <v>0.1585730265342364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J6">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P6">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q6">
         <v>3688.514134950653</v>
@@ -818,10 +818,10 @@
         <v>33196.62721455587</v>
       </c>
       <c r="S6">
-        <v>0.4310140172257059</v>
+        <v>0.5066217014989002</v>
       </c>
       <c r="T6">
-        <v>0.4310140172257057</v>
+        <v>0.5066217014989001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J7">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P7">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q7">
         <v>990.940647249564</v>
@@ -880,10 +880,10 @@
         <v>8918.465825246076</v>
       </c>
       <c r="S7">
-        <v>0.1157944076060833</v>
+        <v>0.1361068491067914</v>
       </c>
       <c r="T7">
-        <v>0.1157944076060833</v>
+        <v>0.1361068491067914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.45197733333333</v>
+        <v>33.54649666666666</v>
       </c>
       <c r="N8">
-        <v>178.355932</v>
+        <v>100.63949</v>
       </c>
       <c r="O8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="P8">
-        <v>0.304222453049858</v>
+        <v>0.1978943147725085</v>
       </c>
       <c r="Q8">
-        <v>486.597966275612</v>
+        <v>274.5687828370899</v>
       </c>
       <c r="R8">
-        <v>4379.381696480508</v>
+        <v>2471.11904553381</v>
       </c>
       <c r="S8">
-        <v>0.05686044204927954</v>
+        <v>0.03771234129790574</v>
       </c>
       <c r="T8">
-        <v>0.05686044204927954</v>
+        <v>0.03771234129790574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.548436823552382</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="P9">
-        <v>0.5484368235523819</v>
+        <v>0.6322484766686425</v>
       </c>
       <c r="Q9">
         <v>877.2141579159169</v>
@@ -1004,10 +1004,10 @@
         <v>7894.927421243253</v>
       </c>
       <c r="S9">
-        <v>0.1025051238350921</v>
+        <v>0.1204863836771585</v>
       </c>
       <c r="T9">
-        <v>0.102505123835092</v>
+        <v>0.1204863836771585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="P10">
-        <v>0.1473407233977601</v>
+        <v>0.169857208558849</v>
       </c>
       <c r="Q10">
         <v>235.668655078452</v>
@@ -1066,10 +1066,10 @@
         <v>2121.017895706068</v>
       </c>
       <c r="S10">
-        <v>0.02753859414474002</v>
+        <v>0.03236936355874914</v>
       </c>
       <c r="T10">
-        <v>0.02753859414474001</v>
+        <v>0.03236936355874914</v>
       </c>
     </row>
   </sheetData>
